--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BB00A0-8DE6-4760-8606-8D2952946F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A0BB00A0-8DE6-4760-8606-8D2952946F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD9DF58D-BD08-4D80-84D2-464ACEA21D8B}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -147,13 +147,34 @@
   </si>
   <si>
     <t>Objeto de dominio que contiene información sobre los tipos de servicios ofrecidos por el spa, como masajes, tratamientos faciales, pedicura.</t>
+  </si>
+  <si>
+    <t>OfertaPedicuraMadres</t>
+  </si>
+  <si>
+    <t>OfertaFacial</t>
+  </si>
+  <si>
+    <t>OfertaMasaje</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>OfertaPedicura Madres</t>
+  </si>
+  <si>
+    <t>OfertaFacial San Valentin</t>
+  </si>
+  <si>
+    <t>OfertaMasaje Black Friday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +200,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -258,6 +287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -763,7 +793,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +860,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,110 +957,139 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62648864-EB04-44C3-BA83-B67C2DB45844}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="str">
         <f>Servicio!B2</f>
         <v>Pedicura Spa</v>
       </c>
-      <c r="C2" s="12">
+      <c r="D2" s="12">
         <v>0.2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F2" s="13">
         <v>45402</v>
       </c>
-      <c r="F2" s="4" t="str">
-        <f>B2&amp;"-"&amp;C2</f>
-        <v>Pedicura Spa-0,2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>B2&amp;" "&amp;D2</f>
+        <v>OfertaPedicuraMadres 0,2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="str">
         <f>Servicio!B3</f>
         <v>Tratamiento Facial Antiedad</v>
       </c>
-      <c r="C3" s="12">
+      <c r="D3" s="12">
         <v>0.25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="13">
         <v>45403</v>
       </c>
-      <c r="F3" s="4" t="str">
-        <f>B3&amp;"-"&amp;C3</f>
-        <v>Tratamiento Facial Antiedad-0,25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H4" si="0">B3&amp;" "&amp;D3</f>
+        <v>OfertaFacial 0,25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="10" t="str">
         <f>Servicio!B4</f>
         <v>Masaje Relajante</v>
       </c>
-      <c r="C4" s="12">
+      <c r="D4" s="12">
         <v>0.15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="13">
+      <c r="F4" s="13">
         <v>45404</v>
       </c>
-      <c r="F4" s="4" t="str">
-        <f>B4&amp;"-"&amp;C4</f>
-        <v>Masaje Relajante-0,15</v>
-      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>OfertaMasaje 0,15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" location="TipoServicio!B2" display="TipoServicio!B2" xr:uid="{04A202BD-4A89-45B5-BB07-946ED8AAFAEC}"/>
-    <hyperlink ref="B3:B4" location="TipoServicio!B2" display="TipoServicio!B2" xr:uid="{FFC9BD91-45C2-474E-877A-D1F2AF74D318}"/>
+    <hyperlink ref="C2" location="TipoServicio!B2" display="TipoServicio!B2" xr:uid="{04A202BD-4A89-45B5-BB07-946ED8AAFAEC}"/>
+    <hyperlink ref="C3:C4" location="TipoServicio!B2" display="TipoServicio!B2" xr:uid="{FFC9BD91-45C2-474E-877A-D1F2AF74D318}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A0BB00A0-8DE6-4760-8606-8D2952946F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD9DF58D-BD08-4D80-84D2-464ACEA21D8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79038431-1BBC-4A42-A2A6-70DB2FFCADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79038431-1BBC-4A42-A2A6-70DB2FFCADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727CFD3-7124-4536-AE3F-E7DD39DD6AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="TipoServicio" sheetId="6" r:id="rId3"/>
     <sheet name="Servicio" sheetId="5" r:id="rId4"/>
     <sheet name="Oferta" sheetId="7" r:id="rId5"/>
+    <sheet name="Evento" sheetId="8" r:id="rId6"/>
+    <sheet name="Notificacion" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -104,9 +106,6 @@
     <t>TipoServicio</t>
   </si>
   <si>
-    <t>Precio</t>
-  </si>
-  <si>
     <t>Masaje Relajante</t>
   </si>
   <si>
@@ -168,6 +167,21 @@
   </si>
   <si>
     <t>OfertaMasaje Black Friday</t>
+  </si>
+  <si>
+    <t>Tarifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserva de Cita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oferta </t>
+  </si>
+  <si>
+    <t>Facturacion</t>
+  </si>
+  <si>
+    <t>Notificacion</t>
   </si>
 </sst>
 </file>
@@ -316,17 +330,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>230227</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>10138</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134751</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A0E8AD-DFE8-4836-92FA-1344416A7FAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2B473D-0DFE-31C1-D23A-0C47993B5462}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -343,7 +357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11660227" cy="4391638"/>
+          <a:ext cx="10040751" cy="3677163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -690,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,13 +754,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -754,27 +768,27 @@
         <v>13</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +874,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +897,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -894,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="str">
         <f>TipoServicio!C2</f>
@@ -904,8 +918,8 @@
         <v>100000</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>B2&amp;"-"&amp;D2</f>
-        <v>Pedicura Spa-100000</v>
+        <f>B2</f>
+        <v>Pedicura Spa</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="10" t="str">
         <f>TipoServicio!C3</f>
@@ -923,8 +937,8 @@
         <v>120000</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f>B3&amp;"-"&amp;D3</f>
-        <v>Tratamiento Facial Antiedad-120000</v>
+        <f t="shared" ref="E3:E4" si="0">B3</f>
+        <v>Tratamiento Facial Antiedad</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>TipoServicio!C4</f>
@@ -942,8 +956,8 @@
         <v>100000</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>B4&amp;"-"&amp;D4</f>
-        <v>Masaje Relajante-100000</v>
+        <f t="shared" si="0"/>
+        <v>Masaje Relajante</v>
       </c>
     </row>
   </sheetData>
@@ -959,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62648864-EB04-44C3-BA83-B67C2DB45844}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,16 +997,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -1003,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10" t="str">
         <f>Servicio!B2</f>
@@ -1013,13 +1027,14 @@
         <v>0.2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="13">
         <v>45402</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
+      <c r="G2" s="1" t="str">
+        <f>Evento!B2</f>
+        <v>OfertaPedicura Madres</v>
       </c>
       <c r="H2" s="4" t="str">
         <f>B2&amp;" "&amp;D2</f>
@@ -1031,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="str">
         <f>Servicio!B3</f>
@@ -1041,13 +1056,14 @@
         <v>0.25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="13">
         <v>45403</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
+      <c r="G3" s="1" t="str">
+        <f>Evento!B3</f>
+        <v>OfertaFacial San Valentin</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H4" si="0">B3&amp;" "&amp;D3</f>
@@ -1059,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>Servicio!B4</f>
@@ -1069,13 +1085,14 @@
         <v>0.15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="13">
         <v>45404</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
+      <c r="G4" s="1" t="str">
+        <f>Evento!B4</f>
+        <v>OfertaMasaje Black Friday</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1093,4 +1110,137 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DB1D5A-5E80-4FAF-B6D3-9725EF96B51E}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>Notificacion!B3</f>
+        <v xml:space="preserve">Oferta </v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>B2</f>
+        <v>OfertaPedicura Madres</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>Notificacion!B3</f>
+        <v xml:space="preserve">Oferta </v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" ref="D3:D4" si="0">B3</f>
+        <v>OfertaFacial San Valentin</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>Notificacion!B3</f>
+        <v xml:space="preserve">Oferta </v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>OfertaMasaje Black Friday</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C48326-81E7-4BC0-9589-6DD184028A22}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727CFD3-7124-4536-AE3F-E7DD39DD6AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="6_{474D0E6F-E6F1-4D0E-970B-0D1B424BD5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{113CDE58-8F8F-4DD0-8555-A3276B9C411E}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Notificacion</t>
+  </si>
+  <si>
+    <t>Nuestro servicio de pedicura es una experiencia de rejuvenecimiento para tus pies cansados y estresados. En un ambiente relajante y acogedor, nuestros expertos en cuidado de pies te ofrecen un tratamiento completo que dejará tus pies sintiéndose frescos, suaves y renovados</t>
+  </si>
+  <si>
+    <t>Nuestro tratamiento facial antiedad es una experiencia de rejuvenecimiento diseñada para restaurar la juventud y vitalidad de tu piel. Con una combinación experta de técnicas avanzadas y productos de alta calidad, nuestro equipo de especialistas en cuidado de la piel te brindará una experiencia personalizada que aborda las preocupaciones específicas relacionadas con el envejecimiento de la piel</t>
+  </si>
+  <si>
+    <t>Nuestro masaje relajante es una experiencia indulgente diseñada para liberar el estrés, aliviar la tensión muscular y promover una sensación general de calma y bienestar. En un ambiente tranquilo y acogedor, nuestros terapeutas expertos en masajes te brindarán un tratamiento personalizado que te ayudará a desconectar del ajetreo diario y a revitalizar cuerpo y mente</t>
   </si>
 </sst>
 </file>
@@ -275,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -302,6 +311,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -871,22 +883,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -894,76 +907,91 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="str">
+      <c r="C2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="str">
         <f>TipoServicio!C2</f>
         <v>Pedicura y Manicura</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>100000</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="F2" s="4" t="str">
         <f>B2</f>
         <v>Pedicura Spa</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="str">
         <f>TipoServicio!C3</f>
         <v>Tratamiento Facial</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="11">
         <v>120000</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E4" si="0">B3</f>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F4" si="0">B3</f>
         <v>Tratamiento Facial Antiedad</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="10" t="str">
         <f>TipoServicio!C4</f>
         <v>Masaje</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>100000</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="F4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Masaje Relajante</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="15"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{8285BE18-1034-46DE-BE10-8EBB5362B7DA}"/>
-    <hyperlink ref="C3:C4" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{3B745E16-F563-4178-92F6-C9AB6D383114}"/>
+    <hyperlink ref="D2" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{8285BE18-1034-46DE-BE10-8EBB5362B7DA}"/>
+    <hyperlink ref="D3:D4" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{3B745E16-F563-4178-92F6-C9AB6D383114}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1116,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DB1D5A-5E80-4FAF-B6D3-9725EF96B51E}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="6_{474D0E6F-E6F1-4D0E-970B-0D1B424BD5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{113CDE58-8F8F-4DD0-8555-A3276B9C411E}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="6_{474D0E6F-E6F1-4D0E-970B-0D1B424BD5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4D5F5C8-1F69-4005-B2A9-24233D2D2937}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
-    <sheet name="TipoServicio" sheetId="6" r:id="rId3"/>
-    <sheet name="Servicio" sheetId="5" r:id="rId4"/>
-    <sheet name="Oferta" sheetId="7" r:id="rId5"/>
-    <sheet name="Evento" sheetId="8" r:id="rId6"/>
-    <sheet name="Notificacion" sheetId="9" r:id="rId7"/>
+    <sheet name="Tarifa" sheetId="10" r:id="rId3"/>
+    <sheet name="TipoServicio" sheetId="6" r:id="rId4"/>
+    <sheet name="Servicio" sheetId="5" r:id="rId5"/>
+    <sheet name="Oferta" sheetId="7" r:id="rId6"/>
+    <sheet name="Evento" sheetId="8" r:id="rId7"/>
+    <sheet name="Cliente" sheetId="9" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -73,9 +77,6 @@
     <t>TipoObjetoDominio</t>
   </si>
   <si>
-    <t>Contextro</t>
-  </si>
-  <si>
     <t>Propio</t>
   </si>
   <si>
@@ -172,15 +173,6 @@
     <t>Tarifa</t>
   </si>
   <si>
-    <t xml:space="preserve">Reserva de Cita </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oferta </t>
-  </si>
-  <si>
-    <t>Facturacion</t>
-  </si>
-  <si>
     <t>Notificacion</t>
   </si>
   <si>
@@ -191,13 +183,80 @@
   </si>
   <si>
     <t>Nuestro masaje relajante es una experiencia indulgente diseñada para liberar el estrés, aliviar la tensión muscular y promover una sensación general de calma y bienestar. En un ambiente tranquilo y acogedor, nuestros terapeutas expertos en masajes te brindarán un tratamiento personalizado que te ayudará a desconectar del ajetreo diario y a revitalizar cuerpo y mente</t>
+  </si>
+  <si>
+    <t>Nombre Completo</t>
+  </si>
+  <si>
+    <t>TipoIdentificacion</t>
+  </si>
+  <si>
+    <t>Documento de Identificación</t>
+  </si>
+  <si>
+    <t>Numero Telefonico</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Martina Corrales</t>
+  </si>
+  <si>
+    <t>martina.corrales@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramiro Ramirez</t>
+  </si>
+  <si>
+    <t>ramiro.ramirez@outlook.com</t>
+  </si>
+  <si>
+    <t>Lucrecia Gomez</t>
+  </si>
+  <si>
+    <t>lucrecia.gomez@hotmail.com</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>CampoCalculado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que contiene información sobre los valores de los servicios </t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>31/02/2024</t>
+  </si>
+  <si>
+    <t>31/04/2024</t>
+  </si>
+  <si>
+    <t>Referenciado</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que hace el consumo a tercero que notifica los eventos</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>Contexto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +288,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -280,11 +346,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -314,9 +381,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,17 +413,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>134751</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57663</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>353431</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2B473D-0DFE-31C1-D23A-0C47993B5462}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2339637A-AC4E-09C5-0BC3-E78B386CFFFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -369,7 +440,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10040751" cy="3677163"/>
+          <a:ext cx="7211431" cy="2981741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -379,6 +450,46 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de Dominio Anemico"/>
+      <sheetName val="Objetos de dominio"/>
+      <sheetName val="Cliente"/>
+      <sheetName val="Genero"/>
+      <sheetName val="TipoIdentificacion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>CC</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Pasaporte</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>TI</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,17 +825,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
-  <dimension ref="A1"/>
+  <dimension ref="L11:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="6"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="17"/>
+    </row>
+    <row r="14" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -732,10 +850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +861,7 @@
     <col min="1" max="1" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" style="8" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
@@ -758,56 +876,86 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="Servicio!A1" display="Servicio" xr:uid="{1B941AE0-B9D5-48EA-8B5E-FCA1F99F1D33}"/>
     <hyperlink ref="A3" location="TipoServicio!A1" display="TipoServicio" xr:uid="{C435E2E8-31E6-43EA-8AEA-9447A4E0C810}"/>
-    <hyperlink ref="A4" location="Oferta!A1" display="Oferta" xr:uid="{D7A38285-3128-4507-809F-00E78B181BAE}"/>
+    <hyperlink ref="A5" location="Oferta!A1" display="Oferta" xr:uid="{D7A38285-3128-4507-809F-00E78B181BAE}"/>
+    <hyperlink ref="A4" location="Oferta!A1" display="Oferta" xr:uid="{11CD3424-938B-4DCF-883F-24E828B8E80C}"/>
+    <hyperlink ref="A6" location="Oferta!A1" display="Oferta" xr:uid="{9A0353DE-577D-4E3E-AAE3-5D3785183622}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -815,6 +963,114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357E7923-E7EF-4AD9-A356-C9D474204FF8}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="11" t="str">
+        <f>Servicio!B2</f>
+        <v>Pedicura Spa</v>
+      </c>
+      <c r="D2" s="13">
+        <v>45323</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>B2&amp;"-"&amp;C2</f>
+        <v>100000-Pedicura Spa</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>120000</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>Servicio!B3</f>
+        <v>Tratamiento Facial Antiedad</v>
+      </c>
+      <c r="D3" s="13">
+        <v>45323</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45382</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F4" si="0">B3&amp;"-"&amp;C3</f>
+        <v>120000-Tratamiento Facial Antiedad</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>Servicio!B4</f>
+        <v>Masaje Relajante</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45323</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>100000-Masaje Relajante</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD65F79-6C02-4D3F-86AD-E8559480B117}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -831,13 +1087,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>B2</f>
@@ -857,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>B3</f>
@@ -869,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>B4</f>
@@ -881,12 +1137,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +1157,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -910,13 +1166,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -924,16 +1180,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="10" t="str">
         <f>TipoServicio!C2</f>
         <v>Pedicura y Manicura</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="18">
+        <f>Tarifa!B2</f>
         <v>100000</v>
       </c>
       <c r="F2" s="4" t="str">
@@ -946,16 +1203,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>TipoServicio!C3</f>
         <v>Tratamiento Facial</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="18">
+        <f>Tarifa!B3</f>
         <v>120000</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -968,16 +1226,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>TipoServicio!C4</f>
         <v>Masaje</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="18">
+        <f>Tarifa!B4</f>
         <v>100000</v>
       </c>
       <c r="F4" s="4" t="str">
@@ -992,17 +1251,20 @@
   <hyperlinks>
     <hyperlink ref="D2" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{8285BE18-1034-46DE-BE10-8EBB5362B7DA}"/>
     <hyperlink ref="D3:D4" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{3B745E16-F563-4178-92F6-C9AB6D383114}"/>
+    <hyperlink ref="E2" location="Tarifa!B2" display="Tarifa!B2" xr:uid="{14329CE9-F1FB-445C-ABC9-1DE89D9E0AA8}"/>
+    <hyperlink ref="E3" location="Tarifa!B3" display="Tarifa!B3" xr:uid="{9A19B2D2-DC6A-478B-AD10-00DD9E39B852}"/>
+    <hyperlink ref="E4" location="Tarifa!B4" display="Tarifa!B4" xr:uid="{DD99DC08-0938-4657-A6C6-010A00498A62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62648864-EB04-44C3-BA83-B67C2DB45844}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,42 +1272,50 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="str">
         <f>Servicio!B2</f>
@@ -1054,27 +1324,35 @@
       <c r="D2" s="12">
         <v>0.2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="E2" s="19">
+        <f>Servicio!E2</f>
+        <v>100000</v>
+      </c>
+      <c r="F2" s="19">
+        <f>E2-(E2*D2)</f>
+        <v>80000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="13">
         <v>45402</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="I2" s="1" t="str">
         <f>Evento!B2</f>
         <v>OfertaPedicura Madres</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="J2" s="4" t="str">
         <f>B2&amp;" "&amp;D2</f>
         <v>OfertaPedicuraMadres 0,2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="10" t="str">
         <f>Servicio!B3</f>
@@ -1083,27 +1361,35 @@
       <c r="D3" s="12">
         <v>0.25</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="E3" s="19">
+        <f>Servicio!E3</f>
+        <v>120000</v>
+      </c>
+      <c r="F3" s="19">
+        <f t="shared" ref="F3:F4" si="0">E3-(E3*D3)</f>
+        <v>90000</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13">
         <v>45403</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="I3" s="1" t="str">
         <f>Evento!B3</f>
         <v>OfertaFacial San Valentin</v>
       </c>
-      <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H4" si="0">B3&amp;" "&amp;D3</f>
+      <c r="J3" s="4" t="str">
+        <f t="shared" ref="J3:J4" si="1">B3&amp;" "&amp;D3</f>
         <v>OfertaFacial 0,25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>Servicio!B4</f>
@@ -1112,23 +1398,31 @@
       <c r="D4" s="12">
         <v>0.15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="19">
+        <f>Servicio!E4</f>
+        <v>100000</v>
+      </c>
+      <c r="F4" s="19">
+        <f>E4-(E4*D4)</f>
+        <v>85000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="13">
         <v>45404</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="I4" s="1" t="str">
         <f>Evento!B4</f>
         <v>OfertaMasaje Black Friday</v>
       </c>
-      <c r="H4" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="J4" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>OfertaMasaje 0,15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" s="15"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1140,12 +1434,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DB1D5A-5E80-4FAF-B6D3-9725EF96B51E}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,16 +1452,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,11 +1469,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>Notificacion!B3</f>
-        <v xml:space="preserve">Oferta </v>
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>B2</f>
@@ -1191,11 +1484,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>Notificacion!B3</f>
-        <v xml:space="preserve">Oferta </v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="0">B3</f>
@@ -1207,11 +1499,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>Notificacion!B3</f>
-        <v xml:space="preserve">Oferta </v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1223,52 +1514,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C48326-81E7-4BC0-9589-6DD184028A22}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>+[1]TipoIdentificacion!B7</f>
+        <v>CC</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3116987523</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>+B2&amp;"-"&amp;D2</f>
+        <v>Martina Corrales-1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>+[1]TipoIdentificacion!B8</f>
+        <v>Pasaporte</v>
+      </c>
+      <c r="D3" s="1">
+        <v>987654321</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3639874520</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G4" si="0">+B3&amp;"-"&amp;D3</f>
+        <v>Ramiro Ramirez-987654321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>+[1]TipoIdentificacion!B9</f>
+        <v>TI</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39789321</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3793175677</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Lucrecia Gomez-39789321</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00D4F82D-11BC-41A5-B099-3813A5468F23}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{80072503-FAC7-4D2D-9464-F0D33F09E893}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{53987BF9-A153-48CF-A07E-C55C8160C332}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="6_{474D0E6F-E6F1-4D0E-970B-0D1B424BD5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4D5F5C8-1F69-4005-B2A9-24233D2D2937}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1A7ECA-2A38-4927-B2B7-421DB733ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -253,8 +253,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -349,7 +349,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -383,7 +383,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -466,10 +466,16 @@
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Masculino</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="4">
         <row r="7">
           <cell r="B7" t="str">
@@ -967,7 +973,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1148,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1372,7 @@
         <v>120000</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F4" si="0">E3-(E3*D3)</f>
+        <f t="shared" ref="F3" si="0">E3-(E3*D3)</f>
         <v>90000</v>
       </c>
       <c r="G3" s="1" t="s">

--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1A7ECA-2A38-4927-B2B7-421DB733ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB250CA9-2657-42E9-8086-126CD3655A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -466,9 +466,9 @@
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2" t="str">
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1445,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1A7ECA-2A38-4927-B2B7-421DB733ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46799591-2D47-4459-BD8D-8A50CC2251E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="9" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Tarifa" sheetId="10" r:id="rId3"/>
-    <sheet name="TipoServicio" sheetId="6" r:id="rId4"/>
-    <sheet name="Servicio" sheetId="5" r:id="rId5"/>
-    <sheet name="Oferta" sheetId="7" r:id="rId6"/>
-    <sheet name="Evento" sheetId="8" r:id="rId7"/>
-    <sheet name="Cliente" sheetId="9" r:id="rId8"/>
+    <sheet name="Estado" sheetId="13" r:id="rId4"/>
+    <sheet name="TipoServicio" sheetId="6" r:id="rId5"/>
+    <sheet name="Servicio" sheetId="5" r:id="rId6"/>
+    <sheet name="Oferta" sheetId="7" r:id="rId7"/>
+    <sheet name="Evento" sheetId="8" r:id="rId8"/>
+    <sheet name="Cliente" sheetId="9" r:id="rId9"/>
+    <sheet name="Notificaciones" sheetId="11" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -149,9 +152,6 @@
     <t>Objeto de dominio que contiene información sobre los tipos de servicios ofrecidos por el spa, como masajes, tratamientos faciales, pedicura.</t>
   </si>
   <si>
-    <t>OfertaPedicuraMadres</t>
-  </si>
-  <si>
     <t>OfertaFacial</t>
   </si>
   <si>
@@ -230,12 +230,6 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>31/02/2024</t>
-  </si>
-  <si>
-    <t>31/04/2024</t>
-  </si>
-  <si>
     <t>Referenciado</t>
   </si>
   <si>
@@ -246,6 +240,69 @@
   </si>
   <si>
     <t>Contexto</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene información sobre los eventos  asociados a las ofertas ofrecidas por el spa</t>
+  </si>
+  <si>
+    <t>TipoNotificacion</t>
+  </si>
+  <si>
+    <t>NotificadoA</t>
+  </si>
+  <si>
+    <t>Mesaje</t>
+  </si>
+  <si>
+    <t>EsNotificado</t>
+  </si>
+  <si>
+    <t>La reserva ha sido realizada exitosamente</t>
+  </si>
+  <si>
+    <t>Queremos informarte que por el mes de madres hay descuento en limpieza facial</t>
+  </si>
+  <si>
+    <t>Le adjuntamos su factura emitida</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>identificador</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>Combinación Unica</t>
+  </si>
+  <si>
+    <t>Activa</t>
+  </si>
+  <si>
+    <t>Inactiva</t>
+  </si>
+  <si>
+    <t>01/01/2024</t>
+  </si>
+  <si>
+    <t>01/01/2025</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>OfertaPedicura</t>
+  </si>
+  <si>
+    <t>Objteto de dominio que contiene información acerca del estado de la tarifa que tendra cada servicio</t>
   </si>
 </sst>
 </file>
@@ -256,7 +313,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +358,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +395,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -345,13 +425,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -384,11 +480,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{D30BAD19-9307-41A9-84AE-2383E78F785B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,17 +517,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>353431</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>124241</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>611068</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2339637A-AC4E-09C5-0BC3-E78B386CFFFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA04341-EEA8-2894-80F2-61B8690891B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -440,7 +544,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7211431" cy="2981741"/>
+          <a:ext cx="10517068" cy="4610743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -466,9 +570,9 @@
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2" t="str">
@@ -490,6 +594,65 @@
         <row r="9">
           <cell r="B9" t="str">
             <v>TI</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de Dominio Anemico"/>
+      <sheetName val="Objetos de dominio"/>
+      <sheetName val="Notificación"/>
+      <sheetName val="Cliente"/>
+      <sheetName val="TipoNotificación"/>
+      <sheetName val="ListaNotificacion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="G2" t="str">
+            <v>martina.corrales@gmail.com</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>lucrecia.gomez@hotmail.com</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Reserva</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Evento</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Factura</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>General</v>
           </cell>
         </row>
       </sheetData>
@@ -833,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="L11:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,12 +1017,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FC7885-849D-49E7-BA65-5E135F92B198}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="str">
+        <f>+[2]TipoNotificación!B2</f>
+        <v>Reserva</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>[2]Cliente!G2</f>
+        <v>martina.corrales@gmail.com</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="str">
+        <f>+[2]TipoNotificación!B3</f>
+        <v>Evento</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>+[2]ListaNotificacion!B2</f>
+        <v>General</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="str">
+        <f>+[2]TipoNotificación!B4</f>
+        <v>Factura</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>[2]Cliente!G4</f>
+        <v>lucrecia.gomez@hotmail.com</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -929,10 +1188,10 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -941,27 +1200,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="Servicio!A1" display="Servicio" xr:uid="{1B941AE0-B9D5-48EA-8B5E-FCA1F99F1D33}"/>
     <hyperlink ref="A3" location="TipoServicio!A1" display="TipoServicio" xr:uid="{C435E2E8-31E6-43EA-8AEA-9447A4E0C810}"/>
-    <hyperlink ref="A5" location="Oferta!A1" display="Oferta" xr:uid="{D7A38285-3128-4507-809F-00E78B181BAE}"/>
+    <hyperlink ref="A7" location="Tarifa!A1" display="Tarifa" xr:uid="{D7A38285-3128-4507-809F-00E78B181BAE}"/>
     <hyperlink ref="A4" location="Oferta!A1" display="Oferta" xr:uid="{11CD3424-938B-4DCF-883F-24E828B8E80C}"/>
-    <hyperlink ref="A6" location="Oferta!A1" display="Oferta" xr:uid="{9A0353DE-577D-4E3E-AAE3-5D3785183622}"/>
+    <hyperlink ref="A8" location="Oferta!A1" display="Oferta" xr:uid="{9A0353DE-577D-4E3E-AAE3-5D3785183622}"/>
+    <hyperlink ref="A6" location="Evento!A1" display="Evento" xr:uid="{ABD1896B-9B8C-47E8-85DE-DB596FF2C733}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -970,29 +1258,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357E7923-E7EF-4AD9-A356-C9D474204FF8}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>17</v>
@@ -1000,89 +1289,236 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>100000</v>
-      </c>
-      <c r="C2" s="11" t="str">
+      <c r="B2" s="1" t="str">
         <f>Servicio!B2</f>
         <v>Pedicura Spa</v>
       </c>
-      <c r="D2" s="13">
-        <v>45323</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f>B2&amp;"-"&amp;C2</f>
-        <v>100000-Pedicura Spa</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="25" t="str">
+        <f>Estado!$B$2</f>
+        <v>Activa</v>
+      </c>
+      <c r="G2" s="20" t="str">
+        <f>B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
+        <v>Pedicura Spa-100000-01/01/2024-31/12/2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>120000</v>
-      </c>
-      <c r="C3" s="11" t="str">
+      <c r="B3" s="1" t="str">
         <f>Servicio!B3</f>
         <v>Tratamiento Facial Antiedad</v>
       </c>
-      <c r="D3" s="13">
-        <v>45323</v>
-      </c>
-      <c r="E3" s="13">
-        <v>45382</v>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f t="shared" ref="F3:F4" si="0">B3&amp;"-"&amp;C3</f>
-        <v>120000-Tratamiento Facial Antiedad</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="11">
+        <v>120000</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="25" t="str">
+        <f>Estado!$B$2</f>
+        <v>Activa</v>
+      </c>
+      <c r="G3" s="20" t="str">
+        <f t="shared" ref="G3:G7" si="0">B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
+        <v>Tratamiento Facial Antiedad-120000-01/01/2024-31/12/2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
-        <v>100000</v>
-      </c>
-      <c r="C4" s="11" t="str">
+      <c r="B4" s="1" t="str">
         <f>Servicio!B4</f>
         <v>Masaje Relajante</v>
       </c>
-      <c r="D4" s="13">
-        <v>45323</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="4" t="str">
+      <c r="C4" s="11">
+        <v>150000</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="25" t="str">
+        <f>Estado!$B$2</f>
+        <v>Activa</v>
+      </c>
+      <c r="G4" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>100000-Masaje Relajante</v>
+        <v>Masaje Relajante-150000-01/01/2024-31/12/2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>Servicio!B2</f>
+        <v>Pedicura Spa</v>
+      </c>
+      <c r="C5" s="11">
+        <v>200000</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="25" t="str">
+        <f>Estado!$B$3</f>
+        <v>Inactiva</v>
+      </c>
+      <c r="G5" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Pedicura Spa-200000-01/01/2025-31/12/2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>Servicio!B3</f>
+        <v>Tratamiento Facial Antiedad</v>
+      </c>
+      <c r="C6" s="11">
+        <v>180000</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="25" t="str">
+        <f>Estado!$B$3</f>
+        <v>Inactiva</v>
+      </c>
+      <c r="G6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Tratamiento Facial Antiedad-180000-01/01/2025-31/12/2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>Servicio!B4</f>
+        <v>Masaje Relajante</v>
+      </c>
+      <c r="C7" s="11">
+        <v>220000</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="25" t="str">
+        <f>Estado!$B$3</f>
+        <v>Inactiva</v>
+      </c>
+      <c r="G7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Masaje Relajante-220000-01/01/2025-31/12/2025</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" location="Estado!B2" display="activo" xr:uid="{6F6830C8-CC05-46F8-94BC-E84B5A393DB7}"/>
+    <hyperlink ref="F3:F4" location="Estado!B2" display="activo" xr:uid="{C13B0E0A-2695-4555-8C46-C00CD62D2D76}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0FF228-A94B-46E3-A75E-16170844C9F2}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD65F79-6C02-4D3F-86AD-E8559480B117}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1143,12 +1579,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -1189,14 +1625,14 @@
         <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="10" t="str">
         <f>TipoServicio!C2</f>
         <v>Pedicura y Manicura</v>
       </c>
       <c r="E2" s="18">
-        <f>Tarifa!B2</f>
+        <f>Tarifa!C2</f>
         <v>100000</v>
       </c>
       <c r="F2" s="4" t="str">
@@ -1212,14 +1648,14 @@
         <v>14</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>TipoServicio!C3</f>
         <v>Tratamiento Facial</v>
       </c>
       <c r="E3" s="18">
-        <f>Tarifa!B3</f>
+        <f>Tarifa!C3</f>
         <v>120000</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -1235,15 +1671,15 @@
         <v>13</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>TipoServicio!C4</f>
         <v>Masaje</v>
       </c>
       <c r="E4" s="18">
-        <f>Tarifa!B4</f>
-        <v>100000</v>
+        <f>Tarifa!C4</f>
+        <v>150000</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1265,12 +1701,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62648864-EB04-44C3-BA83-B67C2DB45844}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,11 +1716,10 @@
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1298,10 +1733,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -1309,19 +1744,16 @@
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C2" s="10" t="str">
         <f>Servicio!B2</f>
@@ -1344,21 +1776,17 @@
       <c r="H2" s="13">
         <v>45402</v>
       </c>
-      <c r="I2" s="1" t="str">
-        <f>Evento!B2</f>
-        <v>OfertaPedicura Madres</v>
-      </c>
-      <c r="J2" s="4" t="str">
+      <c r="I2" s="4" t="str">
         <f>B2&amp;" "&amp;D2</f>
-        <v>OfertaPedicuraMadres 0,2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>OfertaPedicura 0,2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="10" t="str">
         <f>Servicio!B3</f>
@@ -1381,21 +1809,17 @@
       <c r="H3" s="13">
         <v>45403</v>
       </c>
-      <c r="I3" s="1" t="str">
-        <f>Evento!B3</f>
-        <v>OfertaFacial San Valentin</v>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J4" si="1">B3&amp;" "&amp;D3</f>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I4" si="1">B3&amp;" "&amp;D3</f>
         <v>OfertaFacial 0,25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>Servicio!B4</f>
@@ -1406,11 +1830,11 @@
       </c>
       <c r="E4" s="19">
         <f>Servicio!E4</f>
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="F4" s="19">
         <f>E4-(E4*D4)</f>
-        <v>85000</v>
+        <v>127500</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -1418,17 +1842,13 @@
       <c r="H4" s="13">
         <v>45404</v>
       </c>
-      <c r="I4" s="1" t="str">
-        <f>Evento!B4</f>
-        <v>OfertaMasaje Black Friday</v>
-      </c>
-      <c r="J4" s="4" t="str">
+      <c r="I4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OfertaMasaje 0,15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J10" s="15"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1440,92 +1860,117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DB1D5A-5E80-4FAF-B6D3-9725EF96B51E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
+      <c r="B2" s="10" t="str">
+        <f>Oferta!B2</f>
+        <v>OfertaPedicura</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>B2</f>
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>Notificaciones!$C$3</f>
+        <v>General</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>C2</f>
         <v>OfertaPedicura Madres</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
+      <c r="B3" s="10" t="str">
+        <f>Oferta!B3</f>
+        <v>OfertaFacial</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D4" si="0">B3</f>
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f>Notificaciones!$C$3</f>
+        <v>General</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E4" si="0">C3</f>
         <v>OfertaFacial San Valentin</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
+      <c r="B4" s="10" t="str">
+        <f>Oferta!B4</f>
+        <v>OfertaMasaje</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="str">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f>Notificaciones!$C$3</f>
+        <v>General</v>
+      </c>
+      <c r="E4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>OfertaMasaje Black Friday</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" location="Notificaciones!A1" display="Notificaciones!A1" xr:uid="{2708A9D5-D92A-4B65-8C66-B36792AC6228}"/>
+    <hyperlink ref="B2" location="Oferta!B2" display="Oferta!B2" xr:uid="{0349CDC5-8CAD-45D5-8487-032E349C1F24}"/>
+    <hyperlink ref="B3:B4" location="Oferta!B2" display="Oferta!B2" xr:uid="{9FA7C2A0-21FD-4377-BF5F-583851742314}"/>
+    <hyperlink ref="D3:D4" location="Notificaciones!A1" display="Notificaciones!A1" xr:uid="{9FF8EDAD-A7B1-420A-B1C8-087BF8371DD8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C48326-81E7-4BC0-9589-6DD184028A22}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,19 +1989,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -1567,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>+[1]TipoIdentificacion!B7</f>
@@ -1580,7 +2025,7 @@
         <v>3116987523</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>+B2&amp;"-"&amp;D2</f>
@@ -1592,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>+[1]TipoIdentificacion!B8</f>
@@ -1605,7 +2050,7 @@
         <v>3639874520</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" ref="G3:G4" si="0">+B3&amp;"-"&amp;D3</f>
@@ -1617,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>+[1]TipoIdentificacion!B9</f>
@@ -1630,7 +2075,7 @@
         <v>3793175677</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>

--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB250CA9-2657-42E9-8086-126CD3655A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFAD9AE-AC5B-49B5-815C-706C88071D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="8" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
-    <sheet name="Tarifa" sheetId="10" r:id="rId3"/>
-    <sheet name="TipoServicio" sheetId="6" r:id="rId4"/>
-    <sheet name="Servicio" sheetId="5" r:id="rId5"/>
-    <sheet name="Oferta" sheetId="7" r:id="rId6"/>
-    <sheet name="Evento" sheetId="8" r:id="rId7"/>
-    <sheet name="Cliente" sheetId="9" r:id="rId8"/>
+    <sheet name="Estado" sheetId="11" r:id="rId3"/>
+    <sheet name="Tarifa" sheetId="10" r:id="rId4"/>
+    <sheet name="TipoServicio" sheetId="6" r:id="rId5"/>
+    <sheet name="Servicio" sheetId="5" r:id="rId6"/>
+    <sheet name="Oferta" sheetId="7" r:id="rId7"/>
+    <sheet name="Evento" sheetId="8" r:id="rId8"/>
+    <sheet name="Notificaciones" sheetId="13" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -149,9 +150,6 @@
     <t>Objeto de dominio que contiene información sobre los tipos de servicios ofrecidos por el spa, como masajes, tratamientos faciales, pedicura.</t>
   </si>
   <si>
-    <t>OfertaPedicuraMadres</t>
-  </si>
-  <si>
     <t>OfertaFacial</t>
   </si>
   <si>
@@ -185,39 +183,6 @@
     <t>Nuestro masaje relajante es una experiencia indulgente diseñada para liberar el estrés, aliviar la tensión muscular y promover una sensación general de calma y bienestar. En un ambiente tranquilo y acogedor, nuestros terapeutas expertos en masajes te brindarán un tratamiento personalizado que te ayudará a desconectar del ajetreo diario y a revitalizar cuerpo y mente</t>
   </si>
   <si>
-    <t>Nombre Completo</t>
-  </si>
-  <si>
-    <t>TipoIdentificacion</t>
-  </si>
-  <si>
-    <t>Documento de Identificación</t>
-  </si>
-  <si>
-    <t>Numero Telefonico</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Martina Corrales</t>
-  </si>
-  <si>
-    <t>martina.corrales@gmail.com</t>
-  </si>
-  <si>
-    <t>Ramiro Ramirez</t>
-  </si>
-  <si>
-    <t>ramiro.ramirez@outlook.com</t>
-  </si>
-  <si>
-    <t>Lucrecia Gomez</t>
-  </si>
-  <si>
-    <t>lucrecia.gomez@hotmail.com</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -230,12 +195,6 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>31/02/2024</t>
-  </si>
-  <si>
-    <t>31/04/2024</t>
-  </si>
-  <si>
     <t>Referenciado</t>
   </si>
   <si>
@@ -246,6 +205,66 @@
   </si>
   <si>
     <t>Contexto</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion sobre los eventos que estan asociados a las ofertas</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion del estado de la tarifa asociada a los sevicios</t>
+  </si>
+  <si>
+    <t>CombinaciónUnica</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
+  </si>
+  <si>
+    <t>01/01/2024</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>01/01/2025</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>TipoNotificacion</t>
+  </si>
+  <si>
+    <t>NotificadoA</t>
+  </si>
+  <si>
+    <t>EsNotificado</t>
+  </si>
+  <si>
+    <t>La reserva ha sido realizada exitosamente</t>
+  </si>
+  <si>
+    <t>Queremos informarte que por el mes de madres hay descuento en limpieza facial</t>
+  </si>
+  <si>
+    <t>Le adjuntamos su factura emitida</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>OfertaPedicura</t>
+  </si>
+  <si>
+    <t>EsNotificadoA</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
   </si>
 </sst>
 </file>
@@ -351,7 +370,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -384,6 +403,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -413,17 +436,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>353431</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>124241</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>354070</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2339637A-AC4E-09C5-0BC3-E78B386CFFFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4568133B-2884-1368-135D-0CA665723081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -440,7 +463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7211431" cy="2981741"/>
+          <a:ext cx="11784070" cy="5229955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -461,9 +484,10 @@
     <sheetNames>
       <sheetName val="Modelo de Dominio Anemico"/>
       <sheetName val="Objetos de dominio"/>
+      <sheetName val="Notificación"/>
       <sheetName val="Cliente"/>
-      <sheetName val="Genero"/>
-      <sheetName val="TipoIdentificacion"/>
+      <sheetName val="TipoNotificación"/>
+      <sheetName val="ListaNotificacion"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -471,25 +495,37 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="2">
-          <cell r="B2" t="str">
-            <v>Masculino</v>
+          <cell r="G2" t="str">
+            <v>martina.corrales@gmail.com</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>lucrecia.gomez@hotmail.com</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>CC</v>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Reserva</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Pasaporte</v>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Evento</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>TI</v>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Factura</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>General</v>
           </cell>
         </row>
       </sheetData>
@@ -833,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="L11:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,10 +892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -929,10 +965,10 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -943,25 +979,55 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="Servicio!A1" display="Servicio" xr:uid="{1B941AE0-B9D5-48EA-8B5E-FCA1F99F1D33}"/>
     <hyperlink ref="A3" location="TipoServicio!A1" display="TipoServicio" xr:uid="{C435E2E8-31E6-43EA-8AEA-9447A4E0C810}"/>
-    <hyperlink ref="A5" location="Oferta!A1" display="Oferta" xr:uid="{D7A38285-3128-4507-809F-00E78B181BAE}"/>
+    <hyperlink ref="A5" location="Tarifa!A1" display="Tarifa" xr:uid="{D7A38285-3128-4507-809F-00E78B181BAE}"/>
     <hyperlink ref="A4" location="Oferta!A1" display="Oferta" xr:uid="{11CD3424-938B-4DCF-883F-24E828B8E80C}"/>
-    <hyperlink ref="A6" location="Oferta!A1" display="Oferta" xr:uid="{9A0353DE-577D-4E3E-AAE3-5D3785183622}"/>
+    <hyperlink ref="A6" location="Notificaciones!A1" display="Notificacion" xr:uid="{9A0353DE-577D-4E3E-AAE3-5D3785183622}"/>
+    <hyperlink ref="A7" location="Evento!A1" display="Evento" xr:uid="{8261A8A8-E058-4AEE-8D83-5A475581FA3D}"/>
+    <hyperlink ref="A8" location="Estado!A1" display="Estado" xr:uid="{A7618448-1B32-4726-9637-4B0AEF3D05EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -969,120 +1035,277 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357E7923-E7EF-4AD9-A356-C9D474204FF8}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1F4880-D96E-407F-8BA4-5C1FBB81552B}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>100000</v>
-      </c>
-      <c r="C2" s="11" t="str">
-        <f>Servicio!B2</f>
-        <v>Pedicura Spa</v>
-      </c>
-      <c r="D2" s="13">
-        <v>45323</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f>B2&amp;"-"&amp;C2</f>
-        <v>100000-Pedicura Spa</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>+B2</f>
+        <v>Activo</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>120000</v>
-      </c>
-      <c r="C3" s="11" t="str">
-        <f>Servicio!B3</f>
-        <v>Tratamiento Facial Antiedad</v>
-      </c>
-      <c r="D3" s="13">
-        <v>45323</v>
-      </c>
-      <c r="E3" s="13">
-        <v>45382</v>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f t="shared" ref="F3:F4" si="0">B3&amp;"-"&amp;C3</f>
-        <v>120000-Tratamiento Facial Antiedad</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>100000</v>
-      </c>
-      <c r="C4" s="11" t="str">
-        <f>Servicio!B4</f>
-        <v>Masaje Relajante</v>
-      </c>
-      <c r="D4" s="13">
-        <v>45323</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>100000-Masaje Relajante</v>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>+B3</f>
+        <v>Inactivo</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357E7923-E7EF-4AD9-A356-C9D474204FF8}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="str">
+        <f>Servicio!B2</f>
+        <v>Pedicura Spa</v>
+      </c>
+      <c r="C2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>+Estado!$B$2</f>
+        <v>Activo</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>C2&amp;"-"&amp;B2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
+        <v>100000-Pedicura Spa-01/01/2024-31/12/2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="str">
+        <f>Servicio!B3</f>
+        <v>Tratamiento Facial Antiedad</v>
+      </c>
+      <c r="C3" s="11">
+        <v>120000</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="22" t="str">
+        <f>+Estado!$B$2</f>
+        <v>Activo</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G7" si="0">C3&amp;"-"&amp;B3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
+        <v>120000-Tratamiento Facial Antiedad-01/01/2024-31/12/2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="str">
+        <f>Servicio!B4</f>
+        <v>Masaje Relajante</v>
+      </c>
+      <c r="C4" s="11">
+        <v>100000</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="22" t="str">
+        <f>+Estado!$B$2</f>
+        <v>Activo</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>100000-Masaje Relajante-01/01/2024-31/12/2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>Servicio!B2</f>
+        <v>Pedicura Spa</v>
+      </c>
+      <c r="C5" s="21">
+        <v>140000</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="22" t="str">
+        <f>+Estado!$B$3</f>
+        <v>Inactivo</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>140000-Pedicura Spa-01/01/2025-31/12/2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>Servicio!B3</f>
+        <v>Tratamiento Facial Antiedad</v>
+      </c>
+      <c r="C6" s="21">
+        <v>180000</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="22" t="str">
+        <f>+Estado!$B$3</f>
+        <v>Inactivo</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>180000-Tratamiento Facial Antiedad-01/01/2025-31/12/2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="str">
+        <f>Servicio!B4</f>
+        <v>Masaje Relajante</v>
+      </c>
+      <c r="C7" s="21">
+        <v>140000</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="22" t="str">
+        <f>+Estado!$B$3</f>
+        <v>Inactivo</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>140000-Masaje Relajante-01/01/2025-31/12/2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Servicio!B2" display="Servicio!B2" xr:uid="{0BFE66EC-400E-4122-BF1C-5F908DB18C91}"/>
+    <hyperlink ref="B3:B4" location="Servicio!B2" display="Servicio!B2" xr:uid="{056AB4B5-67BE-4BA4-B689-5C421D4DED6A}"/>
+    <hyperlink ref="B5" location="Servicio!B2" display="Servicio!B2" xr:uid="{E6C2851A-8C21-4239-A26F-AD659B29660A}"/>
+    <hyperlink ref="B6:B7" location="Servicio!B2" display="Servicio!B2" xr:uid="{651D3C98-F307-4088-AA1B-2C8FBF779EB2}"/>
+    <hyperlink ref="F2" location="Estado!A1" display="Estado!A1" xr:uid="{1AD116B3-193D-44D5-8202-AEE3DD935FFD}"/>
+    <hyperlink ref="F3:F4" location="Estado!A1" display="Estado!A1" xr:uid="{727BE1D6-6D1A-4A8B-9B75-265EDAAD6D0C}"/>
+    <hyperlink ref="F5" location="Estado!A1" display="Estado!A1" xr:uid="{A0482706-70D6-444F-A281-B3C6DFC93635}"/>
+    <hyperlink ref="F6:F7" location="Estado!A1" display="Estado!A1" xr:uid="{4C886A3B-CD53-4242-BDA4-1FC7E032B95B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD65F79-6C02-4D3F-86AD-E8559480B117}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1143,13 +1366,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1175,7 +1396,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -1189,14 +1410,14 @@
         <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="10" t="str">
         <f>TipoServicio!C2</f>
         <v>Pedicura y Manicura</v>
       </c>
       <c r="E2" s="18">
-        <f>Tarifa!B2</f>
+        <f>Tarifa!C2</f>
         <v>100000</v>
       </c>
       <c r="F2" s="4" t="str">
@@ -1212,14 +1433,14 @@
         <v>14</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>TipoServicio!C3</f>
         <v>Tratamiento Facial</v>
       </c>
       <c r="E3" s="18">
-        <f>Tarifa!B3</f>
+        <f>Tarifa!C3</f>
         <v>120000</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -1235,14 +1456,14 @@
         <v>13</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>TipoServicio!C4</f>
         <v>Masaje</v>
       </c>
       <c r="E4" s="18">
-        <f>Tarifa!B4</f>
+        <f>Tarifa!C4</f>
         <v>100000</v>
       </c>
       <c r="F4" s="4" t="str">
@@ -1265,13 +1486,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62648864-EB04-44C3-BA83-B67C2DB45844}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1298,10 +1517,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -1310,7 +1529,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -1321,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C2" s="10" t="str">
         <f>Servicio!B2</f>
@@ -1345,12 +1564,12 @@
         <v>45402</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>Evento!B2</f>
+        <f>Evento!C2</f>
         <v>OfertaPedicura Madres</v>
       </c>
       <c r="J2" s="4" t="str">
         <f>B2&amp;" "&amp;D2</f>
-        <v>OfertaPedicuraMadres 0,2</v>
+        <v>OfertaPedicura 0,2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1358,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="10" t="str">
         <f>Servicio!B3</f>
@@ -1382,7 +1601,7 @@
         <v>45403</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>Evento!B3</f>
+        <f>Evento!C3</f>
         <v>OfertaFacial San Valentin</v>
       </c>
       <c r="J3" s="4" t="str">
@@ -1395,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>Servicio!B4</f>
@@ -1419,7 +1638,7 @@
         <v>45404</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>Evento!B4</f>
+        <f>Evento!C4</f>
         <v>OfertaMasaje Black Friday</v>
       </c>
       <c r="J4" s="4" t="str">
@@ -1440,209 +1659,201 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DB1D5A-5E80-4FAF-B6D3-9725EF96B51E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>Oferta!B2</f>
+        <v>OfertaPedicura</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>Notificaciones!$C$3</f>
+        <v>General</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>C2</f>
+        <v>OfertaPedicura Madres</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>Oferta!B3</f>
+        <v>OfertaFacial</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f>Notificaciones!$C$3</f>
+        <v>General</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E4" si="0">C3</f>
+        <v>OfertaFacial San Valentin</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>Oferta!B4</f>
+        <v>OfertaMasaje</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f>Notificaciones!$C$3</f>
+        <v>General</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>OfertaMasaje Black Friday</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Oferta!A1" display="Oferta!A1" xr:uid="{BFA1DE09-C2BD-44B7-B636-C0341A1A707C}"/>
+    <hyperlink ref="B3:B4" location="Oferta!A1" display="Oferta!A1" xr:uid="{B0116EF2-321A-48FD-BDC6-74777EB7BD97}"/>
+    <hyperlink ref="D2" location="Notificaciones!A1" display="Notificaciones!A1" xr:uid="{246B3E9B-04FE-459E-BDEB-93A45AE34BA2}"/>
+    <hyperlink ref="D3:D4" location="Notificaciones!A1" display="Notificaciones!A1" xr:uid="{7D275471-B7F6-4981-B95E-072295ED258D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887A9A51-AE2F-4198-A35D-12E6A60BFF40}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>B2</f>
-        <v>OfertaPedicura Madres</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="str">
+        <f>+[1]TipoNotificación!B2</f>
+        <v>Reserva</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>[1]Cliente!G2</f>
+        <v>martina.corrales@gmail.com</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D4" si="0">B3</f>
-        <v>OfertaFacial San Valentin</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="str">
+        <f>+[1]TipoNotificación!B3</f>
+        <v>Evento</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>+[1]ListaNotificacion!B2</f>
+        <v>General</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>OfertaMasaje Black Friday</v>
+      <c r="B4" s="1" t="str">
+        <f>+[1]TipoNotificación!B4</f>
+        <v>Factura</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>[1]Cliente!G4</f>
+        <v>lucrecia.gomez@hotmail.com</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C48326-81E7-4BC0-9589-6DD184028A22}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>+[1]TipoIdentificacion!B7</f>
-        <v>CC</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3116987523</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f>+B2&amp;"-"&amp;D2</f>
-        <v>Martina Corrales-1234567890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>+[1]TipoIdentificacion!B8</f>
-        <v>Pasaporte</v>
-      </c>
-      <c r="D3" s="1">
-        <v>987654321</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3639874520</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G4" si="0">+B3&amp;"-"&amp;D3</f>
-        <v>Ramiro Ramirez-987654321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>+[1]TipoIdentificacion!B9</f>
-        <v>TI</v>
-      </c>
-      <c r="D4" s="1">
-        <v>39789321</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3793175677</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Lucrecia Gomez-39789321</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{00D4F82D-11BC-41A5-B099-3813A5468F23}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{80072503-FAC7-4D2D-9464-F0D33F09E893}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{53987BF9-A153-48CF-A07E-C55C8160C332}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFAD9AE-AC5B-49B5-815C-706C88071D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57814DF-7036-4476-B51A-85C31FCCD343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="8" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -404,9 +404,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -894,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1144,7 @@
       <c r="E2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="22" t="str">
+      <c r="F2" s="21" t="str">
         <f>+Estado!$B$2</f>
         <v>Activo</v>
       </c>
@@ -1172,7 +1170,7 @@
       <c r="E3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="22" t="str">
+      <c r="F3" s="21" t="str">
         <f>+Estado!$B$2</f>
         <v>Activo</v>
       </c>
@@ -1198,7 +1196,7 @@
       <c r="E4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="22" t="str">
+      <c r="F4" s="21" t="str">
         <f>+Estado!$B$2</f>
         <v>Activo</v>
       </c>
@@ -1215,7 +1213,7 @@
         <f>Servicio!B2</f>
         <v>Pedicura Spa</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="11">
         <v>140000</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -1224,7 +1222,7 @@
       <c r="E5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="22" t="str">
+      <c r="F5" s="21" t="str">
         <f>+Estado!$B$3</f>
         <v>Inactivo</v>
       </c>
@@ -1241,7 +1239,7 @@
         <f>Servicio!B3</f>
         <v>Tratamiento Facial Antiedad</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="11">
         <v>180000</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -1250,7 +1248,7 @@
       <c r="E6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="22" t="str">
+      <c r="F6" s="21" t="str">
         <f>+Estado!$B$3</f>
         <v>Inactivo</v>
       </c>
@@ -1267,7 +1265,7 @@
         <f>Servicio!B4</f>
         <v>Masaje Relajante</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="11">
         <v>140000</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -1276,7 +1274,7 @@
       <c r="E7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="22" t="str">
+      <c r="F7" s="21" t="str">
         <f>+Estado!$B$3</f>
         <v>Inactivo</v>
       </c>
@@ -1766,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887A9A51-AE2F-4198-A35D-12E6A60BFF40}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1800,7 +1798,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="str">
+      <c r="B2" s="1" t="str">
         <f>+[1]TipoNotificación!B2</f>
         <v>Reserva</v>
       </c>
@@ -1819,7 +1817,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="str">
+      <c r="B3" s="1" t="str">
         <f>+[1]TipoNotificación!B3</f>
         <v>Evento</v>
       </c>

--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57814DF-7036-4476-B51A-85C31FCCD343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539F3E40-E5F1-43F3-9F6F-DC7AB5799579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62648864-EB04-44C3-BA83-B67C2DB45844}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicios - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539F3E40-E5F1-43F3-9F6F-DC7AB5799579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D11793-DC7D-4F0A-BAD8-05ACA790BBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="7" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -1486,9 +1486,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62648864-EB04-44C3-BA83-B67C2DB45844}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1497,11 +1499,10 @@
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1526,14 +1527,11 @@
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1561,16 +1559,12 @@
       <c r="H2" s="13">
         <v>45402</v>
       </c>
-      <c r="I2" s="1" t="str">
-        <f>Evento!C2</f>
-        <v>OfertaPedicura Madres</v>
-      </c>
-      <c r="J2" s="4" t="str">
+      <c r="I2" s="4" t="str">
         <f>B2&amp;" "&amp;D2</f>
         <v>OfertaPedicura 0,2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1598,16 +1592,12 @@
       <c r="H3" s="13">
         <v>45403</v>
       </c>
-      <c r="I3" s="1" t="str">
-        <f>Evento!C3</f>
-        <v>OfertaFacial San Valentin</v>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J4" si="1">B3&amp;" "&amp;D3</f>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I4" si="1">B3&amp;" "&amp;D3</f>
         <v>OfertaFacial 0,25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1635,17 +1625,13 @@
       <c r="H4" s="13">
         <v>45404</v>
       </c>
-      <c r="I4" s="1" t="str">
-        <f>Evento!C4</f>
-        <v>OfertaMasaje Black Friday</v>
-      </c>
-      <c r="J4" s="4" t="str">
+      <c r="I4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OfertaMasaje 0,15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J10" s="15"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1661,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DB1D5A-5E80-4FAF-B6D3-9725EF96B51E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
